--- a/actscores/actscores.xlsx
+++ b/actscores/actscores.xlsx
@@ -30,67 +30,115 @@
     <t>headline</t>
   </si>
   <si>
+    <t>Chicago homicides by age group</t>
+  </si>
+  <si>
+    <t>subhed</t>
+  </si>
+  <si>
+    <t>While Rahm Emanuel made eliminating youth violence a priority, those under 25 still make up a large proportion of homicide deaths in the city.</t>
+  </si>
+  <si>
+    <t>footnote</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Data from Redye. Analysis by WBEZ</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>Chris Hagan | WBEZ</t>
+  </si>
+  <si>
+    <t>hdr_state</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>hdr_something</t>
+  </si>
+  <si>
+    <t>Something</t>
+  </si>
+  <si>
+    <t>hdr_another_thing</t>
+  </si>
+  <si>
+    <t>Another Thing</t>
+  </si>
+  <si>
+    <t>Percent change in job totals by region, 2010-2014</t>
+  </si>
+  <si>
+    <t>While Chicago has gained nearly 100,000 jobs since 2010, the gains haven't been evenly distributed by region.</t>
+  </si>
+  <si>
+    <t>2014 numbers are preliminary. Where Workers Work utilizes administrative data collected under the Illinois Unemployment Insurance Act. The Act does not require employers to report their employment by work location. It should also be noted that specific community data may be impacted to a significant extent by employer reporting inconsistencies.</t>
+  </si>
+  <si>
+    <t>Illinois Department of Employment Security, Where Workers Work.</t>
+  </si>
+  <si>
+    <t>Rahm Emanuel's "Rubber Stamp" council</t>
+  </si>
+  <si>
+    <t>Dick Simpson and researchers at the University of Illinois at Chicago found that the majority of Chicago aldermen vote with Rahm Emanuel's views on issues more than three-quarters of the time.</t>
+  </si>
+  <si>
+    <t>*Multiple aldermen served during this time period. The most recent is listed.</t>
+  </si>
+  <si>
+    <t>"Rahm Emanuel’s Rubber Stamp City Council": Beyza Buyuker, Melissa Mouritsen, Dick Simpson: University of Illinois at Chicago</t>
+  </si>
+  <si>
     <t>Chicago homicides by community area</t>
   </si>
   <si>
-    <t>Chicago homicides by age group</t>
-  </si>
-  <si>
-    <t>Percent change in job totals by region, 2010-2014</t>
-  </si>
-  <si>
-    <t>subhed</t>
-  </si>
-  <si>
-    <t>While Rahm Emanuel made eliminating youth violence a priority, those under 25 still make up a large proportion of homicide deaths in the city.</t>
-  </si>
-  <si>
-    <t>footnote</t>
-  </si>
-  <si>
     <t>Homicides in Chicago are distributed unequally in the city. In 2014 the top 11 community areas had more homicides than the other 66 combined.</t>
   </si>
   <si>
-    <t>While Chicago has gained nearly 100,000 jobs since 2010, the gains haven't been evenly distributed by region.</t>
-  </si>
-  <si>
-    <t>2014 numbers are preliminary. Where Workers Work utilizes administrative data collected under the Illinois Unemployment Insurance Act. The Act does not require employers to report their employment by work location. It should also be noted that specific community data may be impacted to a significant extent by employer reporting inconsistencies.</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Illinois Department of Employment Security, Where Workers Work.</t>
-  </si>
-  <si>
-    <t>Data from Redye. Analysis by WBEZ</t>
-  </si>
-  <si>
     <t>Data from Redeye. Analysis by WBEZ</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>Chris Hagan | WBEZ</t>
-  </si>
-  <si>
-    <t>hdr_state</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>hdr_something</t>
-  </si>
-  <si>
-    <t>Something</t>
-  </si>
-  <si>
-    <t>hdr_another_thing</t>
-  </si>
-  <si>
-    <t>Another Thing</t>
+    <t>Chicago Public Schools ACT scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPS average ACT scores have been inching upward for a decade. </t>
+  </si>
+  <si>
+    <t>Chicago Public Schools</t>
+  </si>
+  <si>
+    <t>Chicago Public Schools enrollment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPS lost roughly 8,000 students in the last four years, twice as many as in the previous four. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago Public Schools </t>
+  </si>
+  <si>
+    <t>Chicago Public Schools graduation rates</t>
+  </si>
+  <si>
+    <t>The graduation rate has accelerated under Emanuel, in part, because of a major expansion in the number of schools serving dropouts.</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>Chicago unemployment rate by race, 2013</t>
+  </si>
+  <si>
+    <t>While unemployment rates have dropped in Chicago during Rahm Emanuel's term, African Americans continue to have a drastically higher rate than other groups.</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau, American Community Survey, 2013</t>
   </si>
   <si>
     <t>Homicides per 100,000 inhabitants</t>
@@ -100,54 +148,6 @@
   </si>
   <si>
     <t>Andrew V. Papachristos, Institution for Social and Policy Studies, Yale University.</t>
-  </si>
-  <si>
-    <t>Chicago Public Schools ACT scores</t>
-  </si>
-  <si>
-    <t>Rahm Emanuel's "Rubber Stamp" council</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPS average ACT scores have been inching upward for a decade. </t>
-  </si>
-  <si>
-    <t>Dick Simpson and researchers at the University of Illinois at Chicago found that the majority of Chicago aldermen vote with Rahm Emanuel's views on issues more than three-quarters of the time.</t>
-  </si>
-  <si>
-    <t>Chicago Public Schools</t>
-  </si>
-  <si>
-    <t>*Multiple aldermen served during this time period. The most recent is listed.</t>
-  </si>
-  <si>
-    <t>"Rahm Emanuel’s Rubber Stamp City Council": Beyza Buyuker, Melissa Mouritsen, Dick Simpson: University of Illinois at Chicago</t>
-  </si>
-  <si>
-    <t>Chicago Public Schools enrollment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPS lost roughly 8,000 students in the last four years, twice as many as in the previous four. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago Public Schools </t>
-  </si>
-  <si>
-    <t>Chicago Public Schools graduation rates</t>
-  </si>
-  <si>
-    <t>The graduation rate has accelerated under Emanuel, in part, because of a major expansion in the number of schools serving dropouts.</t>
-  </si>
-  <si>
-    <t>NPR</t>
-  </si>
-  <si>
-    <t>Chicago unemployment rate by race, 2013</t>
-  </si>
-  <si>
-    <t>While unemployment rates have dropped in Chicago during Rahm Emanuel's term, African Americans continue to have a drastically higher rate than other groups.</t>
-  </si>
-  <si>
-    <t>U.S. Census Bureau, American Community Survey, 2013</t>
   </si>
 </sst>
 </file>
@@ -193,36 +193,31 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -233,39 +228,39 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -288,65 +283,65 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -374,67 +369,67 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -462,65 +457,65 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -548,65 +543,65 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -634,67 +629,67 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +717,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -735,52 +730,52 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -808,63 +803,63 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -892,65 +887,65 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -978,65 +973,65 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
